--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.3049958738089478</v>
+        <v>6.3049958633437511</v>
       </c>
       <c r="C2">
-        <v>11.052900121770218</v>
+        <v>11.052900110227096</v>
       </c>
       <c r="D2">
-        <v>2.2461511181322362</v>
+        <v>2.2461511013817175</v>
       </c>
       <c r="E2">
-        <v>13.99868699414149</v>
+        <v>13.998686967779191</v>
       </c>
       <c r="F2">
-        <v>-6.0788170662944276</v>
+        <v>-6.0788170768725234</v>
       </c>
       <c r="G2">
-        <v>9.8394092467157392</v>
+        <v>9.8394092227165899</v>
       </c>
       <c r="H2">
-        <v>9.9386466012548205</v>
+        <v>9.9386465815728613</v>
       </c>
       <c r="I2">
-        <v>6.4396691530323471</v>
+        <v>6.4396691402379487</v>
       </c>
       <c r="J2">
-        <v>10.802258218000887</v>
+        <v>10.802258204909162</v>
       </c>
       <c r="K2">
-        <v>14.988353834465507</v>
+        <v>14.988353831839676</v>
       </c>
       <c r="L2">
-        <v>11.228313152562079</v>
+        <v>11.228313135329897</v>
       </c>
       <c r="M2">
-        <v>7.8808651977962079</v>
+        <v>7.8808651797875013</v>
       </c>
       <c r="N2">
-        <v>14.31932355254262</v>
+        <v>14.319323522846105</v>
       </c>
       <c r="O2">
-        <v>4.2471460202332931</v>
+        <v>4.2471460021783578</v>
       </c>
       <c r="P2">
-        <v>9.0966767114138598</v>
+        <v>9.0966766926914051</v>
       </c>
       <c r="Q2">
-        <v>12.909923105955206</v>
+        <v>12.9099230880813</v>
       </c>
       <c r="R2">
-        <v>7.5833221463830647</v>
+        <v>7.5833221259513168</v>
       </c>
       <c r="S2">
-        <v>6.6264043872892211</v>
+        <v>6.6264043787678997</v>
       </c>
       <c r="T2">
-        <v>13.224128610713503</v>
+        <v>13.224128591880085</v>
       </c>
       <c r="U2">
-        <v>13.569344154503382</v>
+        <v>13.569344144327367</v>
       </c>
       <c r="V2">
-        <v>10.469102827563754</v>
+        <v>10.469102820927322</v>
       </c>
       <c r="W2">
-        <v>3.1231894456690994</v>
+        <v>3.1231894174538164</v>
       </c>
       <c r="X2">
-        <v>13.970113465810602</v>
+        <v>13.970113438923331</v>
       </c>
       <c r="Y2">
-        <v>14.152550163556738</v>
+        <v>14.152550151325283</v>
       </c>
       <c r="Z2">
-        <v>10.576055051141516</v>
+        <v>10.576055042056536</v>
       </c>
       <c r="AA2">
-        <v>12.007771478732506</v>
+        <v>12.007771447950235</v>
       </c>
       <c r="AB2">
-        <v>12.366154502847808</v>
+        <v>12.36615448832157</v>
       </c>
       <c r="AC2">
-        <v>8.5149886936478421</v>
+        <v>8.5149886803704202</v>
       </c>
       <c r="AD2">
-        <v>12.607965516508868</v>
+        <v>12.607965499534107</v>
       </c>
       <c r="AE2">
-        <v>16.005405849707227</v>
+        <v>16.005405839420604</v>
       </c>
       <c r="AF2">
-        <v>11.959788099340676</v>
+        <v>11.959788089626031</v>
       </c>
       <c r="AG2">
-        <v>10.101975511553924</v>
+        <v>10.101975501714431</v>
       </c>
       <c r="AH2">
-        <v>7.8281925741833707</v>
+        <v>7.8281925656942448</v>
       </c>
       <c r="AI2">
-        <v>2.5340295218053344</v>
+        <v>2.5340295166203766</v>
       </c>
       <c r="AJ2">
-        <v>7.7846920358674145</v>
+        <v>7.7846920220104847</v>
       </c>
       <c r="AK2">
-        <v>10.487451807726279</v>
+        <v>10.487451792682419</v>
       </c>
       <c r="AL2">
-        <v>13.911208626585728</v>
+        <v>13.911208615643423</v>
       </c>
       <c r="AM2">
-        <v>11.147715281759565</v>
+        <v>11.147715261477561</v>
       </c>
       <c r="AN2">
-        <v>10.755290086684932</v>
+        <v>10.755290071903229</v>
       </c>
       <c r="AO2">
-        <v>16.026300104989076</v>
+        <v>16.026300080353053</v>
       </c>
       <c r="AP2">
-        <v>9.332693431669318</v>
+        <v>9.3326934181801899</v>
       </c>
       <c r="AQ2">
-        <v>9.6949891190272819</v>
+        <v>9.6949890951225068</v>
       </c>
       <c r="AR2">
-        <v>10.229289918197034</v>
+        <v>10.229289913978089</v>
       </c>
       <c r="AS2">
-        <v>11.488570871756286</v>
+        <v>11.488570857323216</v>
       </c>
       <c r="AT2">
-        <v>13.476851822422056</v>
+        <v>13.4768518057371</v>
       </c>
       <c r="AU2">
-        <v>8.5978479016985023</v>
+        <v>8.5978478936211964</v>
       </c>
       <c r="AV2">
-        <v>7.2793806165050823</v>
+        <v>7.2793805854289131</v>
       </c>
       <c r="AW2">
-        <v>11.70128595754003</v>
+        <v>11.701285935849784</v>
       </c>
       <c r="AX2">
-        <v>15.916024645513833</v>
+        <v>15.916024627936984</v>
       </c>
       <c r="AY2">
-        <v>12.055342590177839</v>
+        <v>12.05534258061472</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8374566916516137</v>
+        <v>6.8374566938699672</v>
       </c>
       <c r="C3">
-        <v>10.010573007921952</v>
+        <v>10.01057300213129</v>
       </c>
       <c r="D3">
-        <v>15.266044600803374</v>
+        <v>15.266044576960427</v>
       </c>
       <c r="E3">
-        <v>19.608024966121796</v>
+        <v>19.60802496335015</v>
       </c>
       <c r="F3">
-        <v>2.4111222885688628</v>
+        <v>2.4111222786889717</v>
       </c>
       <c r="G3">
-        <v>11.169010391247159</v>
+        <v>11.169010386166933</v>
       </c>
       <c r="H3">
-        <v>11.162443485266643</v>
+        <v>11.162443455221034</v>
       </c>
       <c r="I3">
-        <v>8.6374020935563056</v>
+        <v>8.6374020988095808</v>
       </c>
       <c r="J3">
-        <v>12.260593302875812</v>
+        <v>12.260593298378192</v>
       </c>
       <c r="K3">
-        <v>0.82487043658235959</v>
+        <v>0.8248704234536488</v>
       </c>
       <c r="L3">
-        <v>12.880384526150671</v>
+        <v>12.880384510844703</v>
       </c>
       <c r="M3">
-        <v>9.0324115143943153</v>
+        <v>9.0324607324187536</v>
       </c>
       <c r="N3">
-        <v>11.137679334234402</v>
+        <v>11.137679321092357</v>
       </c>
       <c r="O3">
-        <v>5.2817447417710985</v>
+        <v>5.2817447298443208</v>
       </c>
       <c r="P3">
-        <v>27.96970927435558</v>
+        <v>27.969709251004122</v>
       </c>
       <c r="Q3">
-        <v>7.9308600123654527</v>
+        <v>7.9308599981334122</v>
       </c>
       <c r="R3">
-        <v>6.1480137683285001</v>
+        <v>6.1480137465126274</v>
       </c>
       <c r="S3">
-        <v>5.1960030985634331</v>
+        <v>5.196003092554526</v>
       </c>
       <c r="T3">
-        <v>6.8478398967052563</v>
+        <v>6.8478398852339692</v>
       </c>
       <c r="U3">
-        <v>12.648828575941874</v>
+        <v>12.648828564162345</v>
       </c>
       <c r="V3">
-        <v>12.807748008555258</v>
+        <v>12.807747999383279</v>
       </c>
       <c r="W3">
-        <v>8.9455113167626035</v>
+        <v>8.9455112997961397</v>
       </c>
       <c r="X3">
-        <v>5.1864686444611623</v>
+        <v>5.1864686343100335</v>
       </c>
       <c r="Y3">
-        <v>6.4803584775253764</v>
+        <v>6.4803584572353312</v>
       </c>
       <c r="Z3">
-        <v>10.698238858909567</v>
+        <v>10.698238846937375</v>
       </c>
       <c r="AA3">
-        <v>12.969589522789828</v>
+        <v>12.969589488137926</v>
       </c>
       <c r="AB3">
-        <v>10.342258708144938</v>
+        <v>10.342258690851368</v>
       </c>
       <c r="AC3">
-        <v>14.558578320253138</v>
+        <v>14.558578300730193</v>
       </c>
       <c r="AD3">
-        <v>19.438391364077869</v>
+        <v>19.438391324157816</v>
       </c>
       <c r="AE3">
-        <v>13.993358942750431</v>
+        <v>13.993358931327959</v>
       </c>
       <c r="AF3">
-        <v>13.05324395077866</v>
+        <v>13.053243942571788</v>
       </c>
       <c r="AG3">
-        <v>9.3665059483015991</v>
+        <v>9.3665059290223631</v>
       </c>
       <c r="AH3">
-        <v>9.3850443306136313</v>
+        <v>9.385044318992227</v>
       </c>
       <c r="AI3">
-        <v>12.522240347844111</v>
+        <v>12.522240331161912</v>
       </c>
       <c r="AJ3">
-        <v>14.484538127513424</v>
+        <v>14.484538111757647</v>
       </c>
       <c r="AK3">
-        <v>11.587818981904977</v>
+        <v>11.5878189712663</v>
       </c>
       <c r="AL3">
-        <v>12.157845564717265</v>
+        <v>12.157845549070016</v>
       </c>
       <c r="AM3">
-        <v>9.1550747926856939</v>
+        <v>9.1550747720580787</v>
       </c>
       <c r="AN3">
-        <v>5.4206345866927999</v>
+        <v>5.4206345823256878</v>
       </c>
       <c r="AO3">
-        <v>6.6781545105396312</v>
+        <v>6.6781544898272607</v>
       </c>
       <c r="AP3">
-        <v>12.126357559073105</v>
+        <v>12.126357543409119</v>
       </c>
       <c r="AQ3">
-        <v>10.879441576702567</v>
+        <v>10.879441559066363</v>
       </c>
       <c r="AR3">
-        <v>12.628932638103349</v>
+        <v>12.628932633101725</v>
       </c>
       <c r="AS3">
-        <v>8.7775697902515901</v>
+        <v>8.7775697756724593</v>
       </c>
       <c r="AT3">
-        <v>9.8179675425200017</v>
+        <v>9.8179675277883085</v>
       </c>
       <c r="AU3">
-        <v>11.560930928361955</v>
+        <v>11.560930918791412</v>
       </c>
       <c r="AV3">
-        <v>11.045987188107409</v>
+        <v>11.045987155856494</v>
       </c>
       <c r="AW3">
-        <v>12.63808067752332</v>
+        <v>12.638080663084958</v>
       </c>
       <c r="AX3">
-        <v>28.446322141784776</v>
+        <v>28.446322119942952</v>
       </c>
       <c r="AY3">
-        <v>19.123550201516608</v>
+        <v>19.12355018789512</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>6.3049958633437511</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>11.052900110227096</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.2461511013817175</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>13.998686967779191</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.0788170768725234</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>9.8394092227165899</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.9386465815728613</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.4396691402379487</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>10.802258204909162</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.988353831839676</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.228313135329897</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.8808651797875013</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.319323522846105</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.2471460021783578</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>9.0966766926914051</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.9099230880813</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>7.5833221259513168</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.6264043787678997</v>
+        <v>6.6263928591388934</v>
       </c>
       <c r="T2">
-        <v>13.224128591880085</v>
+        <v>13.224115593324717</v>
       </c>
       <c r="U2">
-        <v>13.569344144327367</v>
+        <v>13.569327913153618</v>
       </c>
       <c r="V2">
-        <v>10.469102820927322</v>
+        <v>10.469090232533542</v>
       </c>
       <c r="W2">
-        <v>3.1231894174538164</v>
+        <v>3.1231763193404349</v>
       </c>
       <c r="X2">
-        <v>13.970113438923331</v>
+        <v>13.970129097035011</v>
       </c>
       <c r="Y2">
-        <v>14.152550151325283</v>
+        <v>14.152567557000989</v>
       </c>
       <c r="Z2">
-        <v>10.576055042056536</v>
+        <v>10.576069808734502</v>
       </c>
       <c r="AA2">
-        <v>12.007771447950235</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>12.36615448832157</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>8.5149886803704202</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>12.607965499534107</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>16.005405839420604</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>11.959788089626031</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>10.101975501714431</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.8281925656942448</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>2.5340295166203766</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>7.7846920220104847</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>10.487451792682419</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>13.911208615643423</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>11.147715261477561</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10.755290071903229</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>16.026300080353053</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>9.3326934181801899</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>9.6949890951225068</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.229289913978089</v>
+        <v>10.229277784980148</v>
       </c>
       <c r="AS2">
-        <v>11.488570857323216</v>
+        <v>11.488558125117738</v>
       </c>
       <c r="AT2">
         <v>13.4768518057371</v>
       </c>
       <c r="AU2">
-        <v>8.5978478936211964</v>
+        <v>8.5978356075069051</v>
       </c>
       <c r="AV2">
         <v>7.2793805854289131</v>
       </c>
       <c r="AW2">
-        <v>11.701285935849784</v>
+        <v>11.701300830319202</v>
       </c>
       <c r="AX2">
-        <v>15.916024627936984</v>
+        <v>15.916043184323389</v>
       </c>
       <c r="AY2">
         <v>12.05534258061472</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>6.8374566938699672</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>10.01057300213129</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.266044576960427</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>19.60802496335015</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.4111222786889717</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>11.169010386166933</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>11.162443455221034</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.6374020988095808</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>12.260593298378192</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8248704234536488</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.880384510844703</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.0324607324187536</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>11.137679321092357</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.2817447298443208</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>27.969709251004122</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>7.9308599981334122</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.1480137465126274</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>5.196003092554526</v>
       </c>
       <c r="T3">
-        <v>6.8478398852339692</v>
+        <v>6.8478272761595695</v>
       </c>
       <c r="U3">
-        <v>12.648828564162345</v>
+        <v>12.648812459022718</v>
       </c>
       <c r="V3">
-        <v>12.807747999383279</v>
+        <v>12.807734155880912</v>
       </c>
       <c r="W3">
-        <v>8.9455112997961397</v>
+        <v>8.9454980180574815</v>
       </c>
       <c r="X3">
-        <v>5.1864686343100335</v>
+        <v>5.1864549931993862</v>
       </c>
       <c r="Y3">
-        <v>6.4803584572353312</v>
+        <v>6.4803733893428026</v>
       </c>
       <c r="Z3">
-        <v>10.698238846937375</v>
+        <v>10.698253584196237</v>
       </c>
       <c r="AA3">
-        <v>12.969589488137926</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>10.342258690851368</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>14.558578300730193</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>19.438391324157816</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>13.993358931327959</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>13.053243942571788</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>9.3665059290223631</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>9.385044318992227</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>12.522240331161912</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>14.484538111757647</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>11.5878189712663</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>12.157845549070016</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>9.1550747720580787</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.4206345823256878</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>6.6781544898272607</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>12.126357543409119</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.879441559066363</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>12.628932633101725</v>
+        <v>12.628920290808434</v>
       </c>
       <c r="AS3">
         <v>8.7775697756724593</v>
       </c>
       <c r="AT3">
-        <v>9.8179675277883085</v>
+        <v>9.8179522980149461</v>
       </c>
       <c r="AU3">
-        <v>11.560930918791412</v>
+        <v>11.560917210323275</v>
       </c>
       <c r="AV3">
-        <v>11.045987155856494</v>
+        <v>11.046001045600814</v>
       </c>
       <c r="AW3">
-        <v>12.638080663084958</v>
+        <v>12.638065347666206</v>
       </c>
       <c r="AX3">
-        <v>28.446322119942952</v>
+        <v>28.446342031068898</v>
       </c>
       <c r="AY3">
         <v>19.12355018789512</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.3049843220027615</v>
+        <v>4.2471599082983564</v>
       </c>
       <c r="C2">
-        <v>11.707958129527519</v>
+        <v>7.583308857097931</v>
       </c>
       <c r="D2">
-        <v>2.2461511181322362</v>
+        <v>10.755305864937521</v>
       </c>
       <c r="E2">
-        <v>17.891447242436854</v>
+        <v>9.6949890951225068</v>
       </c>
       <c r="F2">
         <v>-6.0788293669465654</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8374566916516137</v>
+        <v>5.2817447298443208</v>
       </c>
       <c r="C3">
-        <v>12.685124522982727</v>
+        <v>6.1480008132484265</v>
       </c>
       <c r="D3">
-        <v>15.266027850007955</v>
+        <v>5.420649088666738</v>
       </c>
       <c r="E3">
-        <v>19.608006373267223</v>
+        <v>10.878692251859331</v>
       </c>
       <c r="F3">
         <v>2.411136018892384</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.3049843220027615</v>
+        <v>0.4763908301733073</v>
       </c>
       <c r="C2">
-        <v>11.707958129527519</v>
+        <v>5.9051464584187352</v>
       </c>
       <c r="D2">
-        <v>2.2461511181322362</v>
+        <v>7.8406188849253322</v>
       </c>
       <c r="E2">
-        <v>17.891447242436854</v>
+        <v>12.184128701107621</v>
       </c>
       <c r="F2">
         <v>-6.0788293669465654</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6.8374566916516137</v>
+        <v>-5.9463987840165569</v>
       </c>
       <c r="C3">
-        <v>12.685124522982727</v>
+        <v>5.2817447298443208</v>
       </c>
       <c r="D3">
-        <v>15.266027850007955</v>
+        <v>14.514561541772006</v>
       </c>
       <c r="E3">
-        <v>19.608006373267223</v>
+        <v>5.420649088666738</v>
       </c>
       <c r="F3">
         <v>2.411136018892384</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>6.3824239523067137</v>
+      </c>
+      <c r="C2">
+        <v>11.707958117916311</v>
+      </c>
+      <c r="D2">
+        <v>4.1367140885568841</v>
+      </c>
+      <c r="E2">
+        <v>18.926614891585412</v>
+      </c>
+      <c r="F2">
+        <v>-6.0788293775246593</v>
+      </c>
+      <c r="G2">
+        <v>9.8393948924744006</v>
+      </c>
+      <c r="H2">
+        <v>10.018142485009731</v>
+      </c>
+      <c r="I2">
+        <v>6.9001339690954833</v>
+      </c>
+      <c r="J2">
+        <v>10.86153091860422</v>
+      </c>
+      <c r="K2">
+        <v>15.85873282814717</v>
+      </c>
+      <c r="L2">
+        <v>12.033123155517718</v>
+      </c>
+      <c r="M2">
+        <v>7.8808768111107126</v>
+      </c>
+      <c r="N2">
         <v>0.4763908301733073</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>5.9051464584187352</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>9.0966766926914051</v>
+      </c>
+      <c r="Q2">
+        <v>25.995954553716409</v>
+      </c>
+      <c r="R2">
+        <v>7.583308857097931</v>
+      </c>
+      <c r="S2">
+        <v>6.7045127932618378</v>
+      </c>
+      <c r="T2">
+        <v>13.224115593324717</v>
+      </c>
+      <c r="U2">
+        <v>13.878939254888714</v>
+      </c>
+      <c r="V2">
+        <v>11.540647278752841</v>
+      </c>
+      <c r="W2">
+        <v>5.4887524097867058</v>
+      </c>
+      <c r="X2">
+        <v>14.760557665405372</v>
+      </c>
+      <c r="Y2">
+        <v>14.37012227663525</v>
+      </c>
+      <c r="Z2">
+        <v>10.576069808734502</v>
+      </c>
+      <c r="AA2">
+        <v>12.170680449179299</v>
+      </c>
+      <c r="AB2">
+        <v>1.3824492212803721</v>
+      </c>
+      <c r="AC2">
+        <v>9.716011623405139</v>
+      </c>
+      <c r="AD2">
+        <v>10.170398543583357</v>
+      </c>
+      <c r="AE2">
+        <v>16.005405839420604</v>
+      </c>
+      <c r="AF2">
+        <v>11.959773666196091</v>
+      </c>
+      <c r="AG2">
+        <v>10.250051946473828</v>
+      </c>
+      <c r="AH2">
+        <v>8.5648573392722813</v>
+      </c>
+      <c r="AI2">
+        <v>2.5659527232528352</v>
+      </c>
+      <c r="AJ2">
+        <v>8.8003145934407812</v>
+      </c>
+      <c r="AK2">
+        <v>11.407102177615007</v>
+      </c>
+      <c r="AL2">
+        <v>13.911208615643423</v>
+      </c>
+      <c r="AM2">
         <v>7.8406188849253322</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.184128701107621</v>
       </c>
-      <c r="F2">
-        <v>-6.0788293669465654</v>
-      </c>
-      <c r="G2">
-        <v>9.8393949164735464</v>
-      </c>
-      <c r="H2">
-        <v>9.9386603999860128</v>
-      </c>
-      <c r="I2">
-        <v>6.4396580078049768</v>
-      </c>
-      <c r="J2">
-        <v>10.802271638044559</v>
-      </c>
-      <c r="K2">
-        <v>14.988368186209005</v>
-      </c>
-      <c r="L2">
-        <v>11.228299923302703</v>
-      </c>
-      <c r="M2">
-        <v>7.8808768291194227</v>
-      </c>
-      <c r="N2">
-        <v>-0.23138880184343205</v>
-      </c>
-      <c r="O2">
-        <v>4.2471599263532935</v>
-      </c>
-      <c r="P2">
-        <v>9.0966767114138598</v>
-      </c>
-      <c r="Q2">
-        <v>25.995954573661866</v>
-      </c>
-      <c r="R2">
-        <v>7.583308877529678</v>
-      </c>
-      <c r="S2">
-        <v>6.6263928676602131</v>
-      </c>
-      <c r="T2">
-        <v>13.224115612158135</v>
-      </c>
-      <c r="U2">
-        <v>13.569327923329629</v>
-      </c>
-      <c r="V2">
-        <v>10.469090239169972</v>
-      </c>
-      <c r="W2">
-        <v>3.1357768804860497</v>
-      </c>
-      <c r="X2">
-        <v>13.970129123922284</v>
-      </c>
-      <c r="Y2">
-        <v>14.152567569232447</v>
-      </c>
-      <c r="Z2">
-        <v>10.576069817819485</v>
-      </c>
-      <c r="AA2">
-        <v>12.007784028500666</v>
-      </c>
-      <c r="AB2">
-        <v>1.3824492343866823</v>
-      </c>
-      <c r="AC2">
-        <v>8.5150036526964161</v>
-      </c>
-      <c r="AD2">
-        <v>9.2724282159509084</v>
-      </c>
-      <c r="AE2">
-        <v>16.005405849707227</v>
-      </c>
-      <c r="AF2">
-        <v>11.959773675910734</v>
-      </c>
-      <c r="AG2">
-        <v>10.101975511553924</v>
-      </c>
-      <c r="AH2">
-        <v>7.8281812353849194</v>
-      </c>
-      <c r="AI2">
-        <v>2.5340172315992495</v>
-      </c>
-      <c r="AJ2">
-        <v>7.7847050683584538</v>
-      </c>
-      <c r="AK2">
-        <v>10.48746473906046</v>
-      </c>
-      <c r="AL2">
-        <v>13.911208626585728</v>
-      </c>
-      <c r="AM2">
-        <v>7.2254725604338654</v>
-      </c>
-      <c r="AN2">
-        <v>10.755305879719225</v>
-      </c>
       <c r="AO2">
-        <v>16.026300104989076</v>
+        <v>16.026300080353053</v>
       </c>
       <c r="AP2">
-        <v>9.4692065418601814</v>
+        <v>9.469206522094046</v>
       </c>
       <c r="AQ2">
-        <v>9.6949891190272819</v>
+        <v>9.6949890951225068</v>
       </c>
       <c r="AR2">
-        <v>10.229277789199093</v>
+        <v>10.372511856200711</v>
       </c>
       <c r="AS2">
-        <v>11.488558139550804</v>
+        <v>11.488558125117738</v>
       </c>
       <c r="AT2">
-        <v>13.476851822422056</v>
+        <v>14.147130081928458</v>
       </c>
       <c r="AU2">
-        <v>8.5978356155842111</v>
+        <v>9.9321343474291481</v>
       </c>
       <c r="AV2">
-        <v>7.2932539197472908</v>
+        <v>9.4929772646377515</v>
       </c>
       <c r="AW2">
-        <v>11.701300852009449</v>
+        <v>12.634769636060339</v>
       </c>
       <c r="AX2">
-        <v>15.916043201900241</v>
+        <v>16.22095628934866</v>
       </c>
       <c r="AY2">
-        <v>12.055342590177839</v>
+        <v>12.05534258061472</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>6.8374566938699672</v>
+      </c>
+      <c r="C3">
+        <v>12.838513674397875</v>
+      </c>
+      <c r="D3">
+        <v>15.26602782616501</v>
+      </c>
+      <c r="E3">
+        <v>19.608006370495577</v>
+      </c>
+      <c r="F3">
+        <v>2.7065789099368862</v>
+      </c>
+      <c r="G3">
+        <v>11.374495868864736</v>
+      </c>
+      <c r="H3">
+        <v>11.162457823901466</v>
+      </c>
+      <c r="I3">
+        <v>8.6374135114467201</v>
+      </c>
+      <c r="J3">
+        <v>13.185815730603046</v>
+      </c>
+      <c r="K3">
+        <v>0.8248704234536488</v>
+      </c>
+      <c r="L3">
+        <v>12.880397687726166</v>
+      </c>
+      <c r="M3">
+        <v>10.020172143934392</v>
+      </c>
+      <c r="N3">
         <v>-5.9463987840165569</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.2817447298443208</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>28.342924219156391</v>
+      </c>
+      <c r="Q3">
+        <v>8.1749226255073069</v>
+      </c>
+      <c r="R3">
+        <v>7.7337969737299161</v>
+      </c>
+      <c r="S3">
+        <v>5.196003092554526</v>
+      </c>
+      <c r="T3">
+        <v>7.1602905589177794</v>
+      </c>
+      <c r="U3">
+        <v>12.648812459022718</v>
+      </c>
+      <c r="V3">
+        <v>12.807734155880912</v>
+      </c>
+      <c r="W3">
+        <v>8.8953641581969922</v>
+      </c>
+      <c r="X3">
+        <v>5.1864549931993862</v>
+      </c>
+      <c r="Y3">
+        <v>6.4803733893428026</v>
+      </c>
+      <c r="Z3">
+        <v>10.829917151578568</v>
+      </c>
+      <c r="AA3">
+        <v>12.969577061065287</v>
+      </c>
+      <c r="AB3">
+        <v>9.9336796588335758</v>
+      </c>
+      <c r="AC3">
+        <v>14.558594702311597</v>
+      </c>
+      <c r="AD3">
+        <v>19.438391324157816</v>
+      </c>
+      <c r="AE3">
+        <v>14.317234179733179</v>
+      </c>
+      <c r="AF3">
+        <v>13.538061757570205</v>
+      </c>
+      <c r="AG3">
+        <v>9.3665059290223631</v>
+      </c>
+      <c r="AH3">
+        <v>9.3087831070782165</v>
+      </c>
+      <c r="AI3">
+        <v>13.155960690948337</v>
+      </c>
+      <c r="AJ3">
+        <v>14.484523496557673</v>
+      </c>
+      <c r="AK3">
+        <v>11.587831896305953</v>
+      </c>
+      <c r="AL3">
+        <v>13.223169065775645</v>
+      </c>
+      <c r="AM3">
         <v>14.514561541772006</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.420649088666738</v>
       </c>
-      <c r="F3">
-        <v>2.411136018892384</v>
-      </c>
-      <c r="G3">
-        <v>11.168995696618653</v>
-      </c>
-      <c r="H3">
-        <v>11.162457853947078</v>
-      </c>
-      <c r="I3">
-        <v>8.6374135061934432</v>
-      </c>
-      <c r="J3">
-        <v>13.185815735137732</v>
-      </c>
-      <c r="K3">
-        <v>0.82487043658235959</v>
-      </c>
-      <c r="L3">
-        <v>12.880397703032138</v>
-      </c>
-      <c r="M3">
-        <v>9.0324115143943153</v>
-      </c>
-      <c r="N3">
-        <v>-5.9463987728947059</v>
-      </c>
-      <c r="O3">
-        <v>5.2817447417710985</v>
-      </c>
-      <c r="P3">
-        <v>27.969690786203589</v>
-      </c>
-      <c r="Q3">
-        <v>7.9308712169889803</v>
-      </c>
-      <c r="R3">
-        <v>6.1480008350642965</v>
-      </c>
-      <c r="S3">
-        <v>5.1960030985634331</v>
-      </c>
-      <c r="T3">
-        <v>6.8478272876308548</v>
-      </c>
-      <c r="U3">
-        <v>12.648812470802245</v>
-      </c>
-      <c r="V3">
-        <v>12.807734165052889</v>
-      </c>
-      <c r="W3">
-        <v>8.8953642393624719</v>
-      </c>
-      <c r="X3">
-        <v>5.1864550033505141</v>
-      </c>
-      <c r="Y3">
-        <v>6.4803734096328505</v>
-      </c>
-      <c r="Z3">
-        <v>10.698253596168431</v>
-      </c>
-      <c r="AA3">
-        <v>12.969577095717188</v>
-      </c>
-      <c r="AB3">
-        <v>9.3215579946779794</v>
-      </c>
-      <c r="AC3">
-        <v>14.558594721834545</v>
-      </c>
-      <c r="AD3">
-        <v>19.438391364077869</v>
-      </c>
-      <c r="AE3">
-        <v>13.993342591557118</v>
-      </c>
-      <c r="AF3">
-        <v>13.053228938993847</v>
-      </c>
-      <c r="AG3">
-        <v>9.3665059483015991</v>
-      </c>
-      <c r="AH3">
-        <v>9.3087831194911583</v>
-      </c>
-      <c r="AI3">
-        <v>13.155960707724487</v>
-      </c>
-      <c r="AJ3">
-        <v>14.484523512313446</v>
-      </c>
-      <c r="AK3">
-        <v>11.587831906944631</v>
-      </c>
-      <c r="AL3">
-        <v>12.157845564717265</v>
-      </c>
-      <c r="AM3">
-        <v>14.514561563412432</v>
-      </c>
-      <c r="AN3">
-        <v>5.42064909303385</v>
-      </c>
       <c r="AO3">
-        <v>6.6781545105396312</v>
+        <v>7.1974871966534977</v>
       </c>
       <c r="AP3">
-        <v>12.126369661552573</v>
+        <v>12.379425670514122</v>
       </c>
       <c r="AQ3">
-        <v>10.878692270623869</v>
+        <v>12.343011764612253</v>
       </c>
       <c r="AR3">
-        <v>12.628920295810058</v>
+        <v>12.628920290808434</v>
       </c>
       <c r="AS3">
-        <v>8.7775697902515901</v>
+        <v>9.1645677077544079</v>
       </c>
       <c r="AT3">
-        <v>9.8179523127466375</v>
+        <v>9.8179522980149461</v>
       </c>
       <c r="AU3">
-        <v>11.560917219893817</v>
+        <v>11.560917210323275</v>
       </c>
       <c r="AV3">
-        <v>11.060477048945337</v>
+        <v>11.060477017361817</v>
       </c>
       <c r="AW3">
-        <v>12.638065362104566</v>
+        <v>12.638065347666206</v>
       </c>
       <c r="AX3">
-        <v>28.44634205291073</v>
+        <v>28.446342031068898</v>
       </c>
       <c r="AY3">
-        <v>19.123550201516608</v>
+        <v>19.235080740088094</v>
       </c>
     </row>
   </sheetData>
